--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDmLoaiDat.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDmLoaiDat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDDB230-020A-4CB6-A7D5-585C604B8DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9040A2-76D4-4F4F-A677-4CD17FDF5CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="1980" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Danh mục loại đất</t>
-  </si>
-  <si>
     <t>Mã loại đất</t>
   </si>
   <si>
     <t>Loại đất</t>
   </si>
   <si>
-    <t>đất trồng cây</t>
+    <t>Đất trồng cây</t>
+  </si>
+  <si>
+    <t>DANH MỤC LOẠI ĐẤT</t>
   </si>
 </sst>
 </file>
@@ -47,7 +47,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -55,7 +55,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -63,7 +63,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,14 +84,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -378,31 +397,31 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="33" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>123</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
